--- a/MainSheet.xlsx
+++ b/MainSheet.xlsx
@@ -22,6 +22,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Bilan A</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,8 +63,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,14 +394,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="I9" sqref="I9:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>